--- a/GPF Format.xlsx
+++ b/GPF Format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="C345" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20640" windowHeight="11760" tabRatio="742"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20640" windowHeight="11760" tabRatio="742" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GPF ADVANCE" sheetId="6" r:id="rId1"/>
@@ -561,9 +561,6 @@
     <t xml:space="preserve"> - - - - - - - - </t>
   </si>
   <si>
-    <t>FORM 9</t>
-  </si>
-  <si>
     <t>(For Non-Gezetted Officers)</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
     </r>
   </si>
   <si>
-    <t>3. My Provident Fund Account No. is ....................................... I desire to receive payment through my office/through the ................................. Treasury/Sub-Treasury. *Particulars of my personal marks of identification, left hand thumb and finger impressions (in the case of illiterate subscriber) and specimen signature (in the case of literate subscriber), in duplicate, duly attested by a Gazetted Officer of the Government are enclosed.</t>
-  </si>
-  <si>
     <t>(5) Certified that he/she was neither sanctioned any temporary advance for any final withdrawal from his/her provident fund account during the 12 months immediately preceding the date of his/her quitting service/proceeding on leave preparatory to retirement or thereafter.</t>
   </si>
   <si>
@@ -794,13 +788,19 @@
   </si>
   <si>
     <t xml:space="preserve">Head of the Department. </t>
+  </si>
+  <si>
+    <t>3. My Provident Fund Account No. is .......................................... I desire to receive payment through my office/through the .................................... Treasury/Sub-Treasury. *Particulars of my personal marks of identification, left hand thumb and finger impressions (in the case of illiterate subscriber) and specimen signature (in the case of literate subscriber), in duplicate, duly attested by a Gazetted Officer of the Government are enclosed.</t>
+  </si>
+  <si>
+    <t>FORM 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,6 +1032,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1167,7 +1174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -1408,14 +1415,173 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="justify"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1424,42 +1590,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -1490,10 +1632,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1528,200 +1666,77 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="justify"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2029,283 +2044,283 @@
   </sheetPr>
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="128" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="43.28515625" style="125" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="125"/>
+    <col min="1" max="1" width="8.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="43.28515625" style="77" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
     </row>
     <row r="3" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A3" s="126">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="139"/>
+      <c r="C3" s="86"/>
     </row>
     <row r="4" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A4" s="126">
+      <c r="A4" s="78">
         <v>2</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="86"/>
     </row>
     <row r="5" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A5" s="126">
+      <c r="A5" s="78">
         <v>3</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="139"/>
+      <c r="C5" s="86"/>
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A6" s="126">
+      <c r="A6" s="78">
         <v>4</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="139"/>
+      <c r="C6" s="86"/>
     </row>
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A7" s="126">
+      <c r="A7" s="78">
         <v>5</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="139"/>
+      <c r="C7" s="86"/>
     </row>
     <row r="8" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A8" s="126">
+      <c r="A8" s="78">
         <v>6</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="139"/>
+      <c r="C8" s="86"/>
     </row>
     <row r="9" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A9" s="126">
+      <c r="A9" s="78">
         <v>7</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="139"/>
+      <c r="C9" s="86"/>
     </row>
     <row r="10" spans="1:3" ht="78.75" customHeight="1">
-      <c r="A10" s="126">
+      <c r="A10" s="78">
         <v>8</v>
       </c>
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="139"/>
+      <c r="C10" s="86"/>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1">
-      <c r="A11" s="126">
+      <c r="A11" s="78">
         <v>9</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="139"/>
+      <c r="C11" s="86"/>
     </row>
     <row r="12" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A12" s="126">
+      <c r="A12" s="78">
         <v>10</v>
       </c>
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="139"/>
+      <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:3" ht="89.25" customHeight="1">
-      <c r="A13" s="126">
+      <c r="A13" s="78">
         <v>11</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="139"/>
+      <c r="C13" s="86"/>
     </row>
     <row r="14" spans="1:3" ht="49.5" customHeight="1">
-      <c r="A14" s="126">
+      <c r="A14" s="78">
         <v>12</v>
       </c>
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="139"/>
+      <c r="C14" s="86"/>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1">
-      <c r="A15" s="126">
+      <c r="A15" s="78">
         <v>13</v>
       </c>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="139"/>
+      <c r="C15" s="86"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="81" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="81" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="81" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="130"/>
+      <c r="C19" s="92"/>
     </row>
     <row r="21" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A21" s="124" t="s">
+      <c r="A21" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
     </row>
     <row r="22" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
     </row>
     <row r="23" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1">
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="81" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
-      <c r="A25" s="128" t="s">
+      <c r="A25" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="94"/>
+    </row>
+    <row r="26" spans="1:3" ht="7.5" customHeight="1">
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="B28" s="81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="63.75" customHeight="1">
+      <c r="A29" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+    </row>
+    <row r="30" spans="1:3" ht="22.5" customHeight="1">
+      <c r="B30" s="81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75">
+      <c r="A31" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="138" customHeight="1">
+      <c r="A33" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="82"/>
-    </row>
-    <row r="26" spans="1:3" ht="7.5" customHeight="1">
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
-      <c r="B28" s="129" t="s">
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+    </row>
+    <row r="34" spans="1:3" ht="44.25" customHeight="1">
+      <c r="B34" s="81" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="63.75" customHeight="1">
-      <c r="A29" s="82" t="s">
+    <row r="35" spans="1:3">
+      <c r="C35" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-    </row>
-    <row r="30" spans="1:3" ht="22.5" customHeight="1">
-      <c r="B30" s="129" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="81" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.75">
-      <c r="A31" s="134" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="129" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="138" customHeight="1">
-      <c r="A33" s="82" t="s">
+      <c r="C36" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-    </row>
-    <row r="34" spans="1:3" ht="44.25" customHeight="1">
-      <c r="B34" s="129" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="C35" s="135" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="136" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="37" spans="1:3" ht="9.75" customHeight="1">
-      <c r="B37" s="129"/>
-    </row>
-    <row r="38" spans="1:3" s="137" customFormat="1" ht="24" customHeight="1">
+      <c r="B37" s="81"/>
+    </row>
+    <row r="38" spans="1:3" s="85" customFormat="1" ht="24" customHeight="1">
       <c r="A38" s="49" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="137" customFormat="1" ht="21" customHeight="1">
-      <c r="A39" s="138" t="s">
+    <row r="39" spans="1:3" s="85" customFormat="1" ht="21" customHeight="1">
+      <c r="A39" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
     </row>
   </sheetData>
   <sheetProtection password="C345" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -2356,32 +2371,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
     </row>
     <row r="2" spans="1:3" s="59" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:3" s="59" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
     </row>
     <row r="4" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
     </row>
     <row r="5" spans="1:3" ht="36" customHeight="1">
       <c r="A5" s="33">
@@ -2544,19 +2559,19 @@
       <c r="A26" s="58">
         <v>1</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="100"/>
     </row>
     <row r="27" spans="1:3" ht="94.5" customHeight="1">
       <c r="A27" s="57">
         <v>2</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="100"/>
     </row>
     <row r="28" spans="1:3" ht="52.5" customHeight="1">
       <c r="A28" s="57"/>
@@ -2572,21 +2587,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="57"/>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="64"/>
+      <c r="C30" s="104"/>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1">
       <c r="A31" s="57"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
     </row>
     <row r="32" spans="1:3" ht="174.75" customHeight="1">
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="65"/>
+      <c r="C32" s="101"/>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" s="26"/>
@@ -2632,25 +2647,25 @@
       <c r="A41" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="65"/>
+      <c r="C41" s="101"/>
     </row>
     <row r="42" spans="1:3" ht="40.5" customHeight="1">
       <c r="A42" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="66"/>
+      <c r="C42" s="96"/>
     </row>
     <row r="43" spans="1:3" ht="40.5" customHeight="1">
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="67"/>
+      <c r="C43" s="91"/>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1">
       <c r="B44" s="56"/>
@@ -2671,6 +2686,11 @@
   </sheetData>
   <sheetProtection password="C345" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="A2:C2"/>
@@ -2678,11 +2698,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2713,32 +2728,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
     </row>
     <row r="4" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1">
       <c r="A5" s="33">
@@ -2933,10 +2948,10 @@
     </row>
     <row r="29" spans="1:3" ht="88.5" customHeight="1">
       <c r="A29" s="25"/>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="106"/>
     </row>
     <row r="30" spans="1:3" ht="36.75" customHeight="1">
       <c r="A30" s="25"/>
@@ -2955,20 +2970,20 @@
       <c r="C32" s="25"/>
     </row>
     <row r="33" spans="1:3" ht="25.5" customHeight="1">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="71"/>
+      <c r="C33" s="107"/>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
     </row>
     <row r="35" spans="1:3" ht="195" customHeight="1">
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="65"/>
+      <c r="C35" s="101"/>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="26"/>
@@ -3014,25 +3029,25 @@
       <c r="A44" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="65"/>
+      <c r="C44" s="101"/>
     </row>
     <row r="45" spans="1:3" ht="45" customHeight="1">
       <c r="A45" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="66"/>
+      <c r="C45" s="96"/>
     </row>
     <row r="46" spans="1:3" ht="41.25" customHeight="1">
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="91"/>
     </row>
     <row r="47" spans="1:3" ht="48.75" customHeight="1">
       <c r="B47" s="37"/>
@@ -3049,16 +3064,16 @@
   </sheetData>
   <sheetProtection password="C345" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="10">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -3096,32 +3111,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
     </row>
     <row r="2" spans="1:3" ht="24">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
     </row>
     <row r="3" spans="1:3" ht="24">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
     </row>
     <row r="4" spans="1:3" ht="24">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
     </row>
     <row r="5" spans="1:3" ht="35.25" customHeight="1">
       <c r="A5" s="2">
@@ -3142,17 +3157,17 @@
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" ht="21.75">
-      <c r="A7" s="78">
+      <c r="A7" s="112">
         <v>3</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="113" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="21.75">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1">
@@ -3314,11 +3329,11 @@
       <c r="A28" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="108.75" customHeight="1">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="12"/>
@@ -3335,18 +3350,18 @@
       <c r="A33" s="14"/>
     </row>
     <row r="34" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
     </row>
     <row r="35" spans="1:3" ht="146.25" customHeight="1">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
     </row>
     <row r="36" spans="1:3" ht="20.25" customHeight="1">
       <c r="A36" s="15"/>
@@ -3365,28 +3380,28 @@
       <c r="A39" s="18"/>
     </row>
     <row r="40" spans="1:3" ht="21.75">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
     </row>
     <row r="41" spans="1:3" ht="43.5" customHeight="1">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
     </row>
     <row r="42" spans="1:3" ht="11.25" customHeight="1">
       <c r="A42" s="19"/>
     </row>
     <row r="43" spans="1:3" ht="62.25" customHeight="1">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="20"/>
@@ -3449,32 +3464,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
     </row>
     <row r="2" spans="1:3" ht="18.75">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
     </row>
     <row r="4" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
     </row>
     <row r="5" spans="1:3" ht="36" customHeight="1">
       <c r="A5" s="33">
@@ -3603,34 +3618,34 @@
       <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="87">
+      <c r="A19" s="120">
         <v>15</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="116"/>
     </row>
     <row r="20" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A20" s="88"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="116"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="88"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="83"/>
+      <c r="C21" s="116"/>
     </row>
     <row r="22" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A22" s="89"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="83"/>
+      <c r="C22" s="116"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="25"/>
@@ -3655,20 +3670,20 @@
       <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" ht="25.5" customHeight="1">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="90"/>
+      <c r="C29" s="123"/>
     </row>
     <row r="30" spans="1:3" ht="24.75" customHeight="1">
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
     </row>
     <row r="31" spans="1:3" ht="195" customHeight="1">
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="94"/>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="26"/>
@@ -3727,10 +3742,10 @@
       <c r="C43" s="48"/>
     </row>
     <row r="44" spans="2:3" ht="43.5" customHeight="1">
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="82"/>
+      <c r="C44" s="94"/>
     </row>
     <row r="45" spans="2:3" ht="16.5">
       <c r="B45" s="29"/>
@@ -3782,8 +3797,8 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3795,376 +3810,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="126" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="92" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="92" t="s">
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1">
+      <c r="A4" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1">
-      <c r="A4" s="93" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="126" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A9" s="62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="59.25" customHeight="1">
+      <c r="A10" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A11" s="61"/>
+    </row>
+    <row r="12" spans="1:3" s="63" customFormat="1" ht="63" customHeight="1">
+      <c r="A12" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="94" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="94" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="94" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A9" s="95" t="s">
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A13" s="125" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="59.25" customHeight="1">
-      <c r="A10" s="96" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-    </row>
-    <row r="11" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A11" s="94"/>
-    </row>
-    <row r="12" spans="1:3" s="97" customFormat="1" ht="63" customHeight="1">
-      <c r="A12" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A13" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
     </row>
     <row r="14" spans="1:3" ht="4.5" customHeight="1"/>
     <row r="15" spans="1:3" ht="78.75" customHeight="1">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+    </row>
+    <row r="16" spans="1:3" ht="18" customHeight="1">
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+    </row>
+    <row r="17" spans="1:3" ht="94.5" customHeight="1">
+      <c r="A17" s="124" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="61"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1">
+      <c r="A19" s="124" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+    </row>
+    <row r="20" spans="1:3" ht="9.75" customHeight="1">
+      <c r="A20" s="61"/>
+    </row>
+    <row r="21" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A21" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="21" customHeight="1">
+      <c r="A22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+    </row>
+    <row r="23" spans="1:3" ht="21" customHeight="1">
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+    </row>
+    <row r="24" spans="1:3" ht="21" customHeight="1">
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+    </row>
+    <row r="25" spans="1:3" ht="21" customHeight="1">
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+    </row>
+    <row r="26" spans="1:3" ht="30.75" customHeight="1">
+      <c r="C26" s="65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A28" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="B30" s="66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="47.25" customHeight="1">
+      <c r="A31" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+    </row>
+    <row r="32" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A32" s="125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+    </row>
+    <row r="33" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A33" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+    </row>
+    <row r="34" spans="1:3" ht="33" customHeight="1">
+      <c r="A34" s="124" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="124"/>
+      <c r="C34" s="124"/>
+    </row>
+    <row r="35" spans="1:3" ht="10.5" customHeight="1">
+      <c r="A35" s="61"/>
+    </row>
+    <row r="36" spans="1:3" ht="51.75" customHeight="1">
+      <c r="A36" s="124" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+    </row>
+    <row r="37" spans="1:3" ht="9.75" customHeight="1">
+      <c r="A37" s="61"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
+    </row>
+    <row r="39" spans="1:3" ht="11.25" customHeight="1">
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+    </row>
+    <row r="40" spans="1:3" ht="66" customHeight="1">
+      <c r="A40" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+    </row>
+    <row r="41" spans="1:3" ht="12" customHeight="1">
+      <c r="A41" s="61"/>
+    </row>
+    <row r="42" spans="1:3" s="68" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A42" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-    </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-    </row>
-    <row r="17" spans="1:3" ht="94.5" customHeight="1">
-      <c r="A17" s="96" t="s">
+      <c r="B42" s="124"/>
+      <c r="C42" s="124"/>
+    </row>
+    <row r="43" spans="1:3" ht="4.5" customHeight="1">
+      <c r="A43" s="61"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+    </row>
+    <row r="45" spans="1:3" ht="51.75" customHeight="1">
+      <c r="A45" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="94"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1">
-      <c r="A19" s="96" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-    </row>
-    <row r="20" spans="1:3" ht="9.75" customHeight="1">
-      <c r="A20" s="94"/>
-    </row>
-    <row r="21" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A21" s="99" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="21" customHeight="1">
-      <c r="A22" s="110"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-    </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1">
-      <c r="A23" s="110"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-    </row>
-    <row r="24" spans="1:3" ht="21" customHeight="1">
-      <c r="A24" s="110"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-    </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-    </row>
-    <row r="26" spans="1:3" ht="30.75" customHeight="1">
-      <c r="C26" s="100" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="94" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A28" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="100" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="101" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="B30" s="101" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="47.25" customHeight="1">
-      <c r="A31" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-    </row>
-    <row r="32" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A32" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-    </row>
-    <row r="33" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A33" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-    </row>
-    <row r="34" spans="1:3" ht="33" customHeight="1">
-      <c r="A34" s="96" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-    </row>
-    <row r="35" spans="1:3" ht="10.5" customHeight="1">
-      <c r="A35" s="94"/>
-    </row>
-    <row r="36" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A36" s="96" t="s">
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+    </row>
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A47" s="70">
+        <v>1</v>
+      </c>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+    </row>
+    <row r="48" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A48" s="70">
+        <v>2</v>
+      </c>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+    </row>
+    <row r="49" spans="1:3" ht="63" customHeight="1">
+      <c r="A49" s="131" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="131"/>
+      <c r="C49" s="131"/>
+    </row>
+    <row r="50" spans="1:3" ht="6.75" customHeight="1">
+      <c r="A50" s="61"/>
+    </row>
+    <row r="51" spans="1:3" ht="30">
+      <c r="A51" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="21" customHeight="1">
+      <c r="A52" s="87">
+        <v>1</v>
+      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+    </row>
+    <row r="53" spans="1:3" ht="21" customHeight="1">
+      <c r="A53" s="87">
+        <v>2</v>
+      </c>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+    </row>
+    <row r="54" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A54" s="133" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="133"/>
+      <c r="C54" s="133"/>
+    </row>
+    <row r="55" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A55" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="125"/>
+      <c r="C55" s="125"/>
+    </row>
+    <row r="56" spans="1:3" ht="54.75" customHeight="1">
+      <c r="A56" s="124" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="124"/>
+      <c r="C56" s="124"/>
+    </row>
+    <row r="57" spans="1:3" ht="33" customHeight="1">
+      <c r="A57" s="132" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="132"/>
+      <c r="C57" s="132"/>
+    </row>
+    <row r="58" spans="1:3" ht="36.75" customHeight="1">
+      <c r="B58" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-    </row>
-    <row r="37" spans="1:3" ht="9.75" customHeight="1">
-      <c r="A37" s="94"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-    </row>
-    <row r="39" spans="1:3" ht="11.25" customHeight="1">
-      <c r="A39" s="104"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
-    </row>
-    <row r="40" spans="1:3" ht="66" customHeight="1">
-      <c r="A40" s="96" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-    </row>
-    <row r="41" spans="1:3" ht="12" customHeight="1">
-      <c r="A41" s="94"/>
-    </row>
-    <row r="42" spans="1:3" s="105" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A42" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-    </row>
-    <row r="43" spans="1:3" ht="4.5" customHeight="1">
-      <c r="A43" s="94"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-    </row>
-    <row r="45" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A45" s="106" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-    </row>
-    <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="107" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="107" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="107" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A47" s="110">
-        <v>1</v>
-      </c>
-      <c r="B47" s="111"/>
-      <c r="C47" s="111"/>
-    </row>
-    <row r="48" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A48" s="110">
-        <v>2</v>
-      </c>
-      <c r="B48" s="111"/>
-      <c r="C48" s="111"/>
-    </row>
-    <row r="49" spans="1:3" ht="63" customHeight="1">
-      <c r="A49" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-    </row>
-    <row r="50" spans="1:3" ht="6.75" customHeight="1">
-      <c r="A50" s="94"/>
-    </row>
-    <row r="51" spans="1:3" ht="30">
-      <c r="A51" s="107" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="107" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="107" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21" customHeight="1">
-      <c r="A52" s="110">
-        <v>1</v>
-      </c>
-      <c r="B52" s="111"/>
-      <c r="C52" s="111"/>
-    </row>
-    <row r="53" spans="1:3" ht="21" customHeight="1">
-      <c r="A53" s="110">
-        <v>2</v>
-      </c>
-      <c r="B53" s="111"/>
-      <c r="C53" s="111"/>
-    </row>
-    <row r="54" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A54" s="109" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A55" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" s="98"/>
-      <c r="C55" s="98"/>
-    </row>
-    <row r="56" spans="1:3" ht="54.75" customHeight="1">
-      <c r="A56" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" s="96"/>
-      <c r="C56" s="96"/>
-    </row>
-    <row r="57" spans="1:3" ht="33" customHeight="1">
-      <c r="A57" s="103" t="s">
+      <c r="C58" s="130"/>
+    </row>
+    <row r="59" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A59" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-    </row>
-    <row r="58" spans="1:3" ht="36.75" customHeight="1">
-      <c r="B58" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" s="102"/>
-    </row>
-    <row r="59" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A59" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" s="102"/>
-      <c r="C59" s="102"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
     </row>
   </sheetData>
   <sheetProtection password="C345" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A16:C16"/>
@@ -4175,16 +4191,15 @@
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -4219,311 +4234,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A2" s="140" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A3" s="136" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+    </row>
+    <row r="4" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A4" s="136" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+    </row>
+    <row r="5" spans="1:3" ht="6" customHeight="1">
+      <c r="A5" s="63"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A6" s="72">
+        <v>1</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="71"/>
+    </row>
+    <row r="7" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A7" s="72">
+        <v>2</v>
+      </c>
+      <c r="B7" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" s="112" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A3" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-    </row>
-    <row r="4" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A4" s="113" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-    </row>
-    <row r="5" spans="1:3" ht="6" customHeight="1">
-      <c r="A5" s="97"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A6" s="114">
-        <v>1</v>
-      </c>
-      <c r="B6" s="115" t="s">
+      <c r="C7" s="71"/>
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="72">
+        <v>3</v>
+      </c>
+      <c r="B8" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="111"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A7" s="114">
-        <v>2</v>
-      </c>
-      <c r="B7" s="115" t="s">
+      <c r="C8" s="71"/>
+    </row>
+    <row r="9" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A9" s="72">
+        <v>4</v>
+      </c>
+      <c r="B9" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="111"/>
-    </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="114">
-        <v>3</v>
-      </c>
-      <c r="B8" s="115" t="s">
+      <c r="C9" s="71"/>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="72">
+        <v>5</v>
+      </c>
+      <c r="B10" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="111"/>
-    </row>
-    <row r="9" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A9" s="114">
-        <v>4</v>
-      </c>
-      <c r="B9" s="115" t="s">
+      <c r="C10" s="71"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A11" s="72">
+        <v>6</v>
+      </c>
+      <c r="B11" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="111"/>
-    </row>
-    <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="114">
-        <v>5</v>
-      </c>
-      <c r="B10" s="115" t="s">
+      <c r="C11" s="71"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A12" s="72">
+        <v>7</v>
+      </c>
+      <c r="B12" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="111"/>
-    </row>
-    <row r="11" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A11" s="114">
-        <v>6</v>
-      </c>
-      <c r="B11" s="115" t="s">
+      <c r="C12" s="71"/>
+    </row>
+    <row r="13" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A13" s="72">
+        <v>8</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="71"/>
+    </row>
+    <row r="14" spans="1:3" ht="51.75" customHeight="1">
+      <c r="A14" s="72">
+        <v>9</v>
+      </c>
+      <c r="B14" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="111"/>
-    </row>
-    <row r="12" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A12" s="114">
-        <v>7</v>
-      </c>
-      <c r="B12" s="115" t="s">
+      <c r="C14" s="71"/>
+    </row>
+    <row r="15" spans="1:3" ht="81" customHeight="1">
+      <c r="A15" s="72">
+        <v>10</v>
+      </c>
+      <c r="B15" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="111"/>
-    </row>
-    <row r="13" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A13" s="114">
-        <v>8</v>
-      </c>
-      <c r="B13" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="111"/>
-    </row>
-    <row r="14" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A14" s="114">
-        <v>9</v>
-      </c>
-      <c r="B14" s="115" t="s">
+      <c r="C15" s="71"/>
+    </row>
+    <row r="16" spans="1:3" ht="66" customHeight="1">
+      <c r="A16" s="72">
+        <v>11</v>
+      </c>
+      <c r="B16" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="111"/>
-    </row>
-    <row r="15" spans="1:3" ht="81" customHeight="1">
-      <c r="A15" s="114">
-        <v>10</v>
-      </c>
-      <c r="B15" s="115" t="s">
+      <c r="C16" s="71"/>
+    </row>
+    <row r="17" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A17" s="72">
+        <v>12</v>
+      </c>
+      <c r="B17" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="111"/>
-    </row>
-    <row r="16" spans="1:3" ht="66" customHeight="1">
-      <c r="A16" s="114">
-        <v>11</v>
-      </c>
-      <c r="B16" s="115" t="s">
+      <c r="C17" s="71"/>
+    </row>
+    <row r="18" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A18" s="72">
+        <v>13</v>
+      </c>
+      <c r="B18" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="111"/>
-    </row>
-    <row r="17" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A17" s="114">
-        <v>12</v>
-      </c>
-      <c r="B17" s="115" t="s">
+      <c r="C18" s="71"/>
+    </row>
+    <row r="19" spans="1:3" ht="62.25" customHeight="1">
+      <c r="A19" s="72">
+        <v>14</v>
+      </c>
+      <c r="B19" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="111"/>
-    </row>
-    <row r="18" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A18" s="114">
-        <v>13</v>
-      </c>
-      <c r="B18" s="115" t="s">
+      <c r="C19" s="71"/>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A20" s="63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="27" customHeight="1">
+      <c r="A21" s="141" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+    </row>
+    <row r="22" spans="1:3" ht="9.75" customHeight="1">
+      <c r="A22" s="63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A23" s="137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+    </row>
+    <row r="24" spans="1:3" ht="7.5" customHeight="1">
+      <c r="A24" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+    </row>
+    <row r="25" spans="1:3" ht="78.75" customHeight="1">
+      <c r="A25" s="137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A26" s="63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" customHeight="1">
+      <c r="A27" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+    </row>
+    <row r="28" spans="1:3" ht="21" customHeight="1">
+      <c r="A28" s="63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="25.5" customHeight="1">
+      <c r="A29" s="136" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="129.75" customHeight="1">
+      <c r="A31" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+    </row>
+    <row r="32" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A32" s="63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="21" customHeight="1">
+      <c r="A33" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
+    </row>
+    <row r="34" spans="1:3" ht="41.25" customHeight="1">
+      <c r="A34" s="63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="21" customHeight="1">
+      <c r="A35" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="111"/>
-    </row>
-    <row r="19" spans="1:3" ht="62.25" customHeight="1">
-      <c r="A19" s="114">
-        <v>14</v>
-      </c>
-      <c r="B19" s="115" t="s">
+      <c r="B35" s="135"/>
+      <c r="C35" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="111"/>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A20" s="97" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A36" s="63" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="27" customHeight="1">
-      <c r="A21" s="116" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-    </row>
-    <row r="22" spans="1:3" ht="9.75" customHeight="1">
-      <c r="A22" s="97" t="s">
+    <row r="37" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A37" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+    </row>
+    <row r="38" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A38" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+    </row>
+    <row r="40" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A40" s="136" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="136"/>
+      <c r="C40" s="136"/>
+    </row>
+    <row r="41" spans="1:3" ht="21" customHeight="1">
+      <c r="A41" s="63" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A23" s="117" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-    </row>
-    <row r="24" spans="1:3" ht="7.5" customHeight="1">
-      <c r="A24" s="118" t="s">
+    <row r="42" spans="1:3" ht="27.75" customHeight="1">
+      <c r="A42" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-    </row>
-    <row r="25" spans="1:3" ht="78.75" customHeight="1">
-      <c r="A25" s="117" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A26" s="97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1">
-      <c r="A27" s="119" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-    </row>
-    <row r="28" spans="1:3" ht="21" customHeight="1">
-      <c r="A28" s="97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A29" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="129.75" customHeight="1">
-      <c r="A31" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-    </row>
-    <row r="32" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A32" s="97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="21" customHeight="1">
-      <c r="A33" s="113" t="s">
-        <v>204</v>
-      </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-    </row>
-    <row r="34" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A34" s="97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21" customHeight="1">
-      <c r="A35" s="121" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="30" customHeight="1">
+      <c r="B43" s="63"/>
+      <c r="C43" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="B35" s="121"/>
-      <c r="C35" s="59" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A36" s="97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A37" s="121" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-    </row>
-    <row r="38" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A38" s="117" t="s">
-        <v>203</v>
-      </c>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A39" s="122"/>
-      <c r="B39" s="122"/>
-      <c r="C39" s="122"/>
-    </row>
-    <row r="40" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A40" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
-    </row>
-    <row r="41" spans="1:3" ht="21" customHeight="1">
-      <c r="A41" s="97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="27.75" customHeight="1">
-      <c r="A42" s="97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" customHeight="1">
-      <c r="B43" s="97"/>
-      <c r="C43" s="123" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="44" spans="1:3" ht="21" customHeight="1">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="63" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4531,6 +4546,12 @@
   </sheetData>
   <sheetProtection password="C345" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A38:C38"/>
@@ -4540,12 +4561,6 @@
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.19685039370078741" header="0.19685039370078741" footer="9.8425196850393706E-2"/>
